--- a/2025-10-12/12_combined_confidence.xlsx
+++ b/2025-10-12/12_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Odds</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Result</t>
         </is>
       </c>
@@ -485,7 +490,10 @@
       <c r="E2" t="n">
         <v>98</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,7 +515,10 @@
       <c r="E3" t="n">
         <v>90</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -529,7 +540,10 @@
       <c r="E4" t="n">
         <v>80</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -551,7 +565,10 @@
       <c r="E5" t="n">
         <v>69</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,7 +588,10 @@
         <v>93</v>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -591,7 +611,10 @@
         <v>100</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -611,7 +634,10 @@
         <v>100</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -631,7 +657,10 @@
         <v>70</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2025-10-12/12_combined_confidence.xlsx
+++ b/2025-10-12/12_combined_confidence.xlsx
@@ -588,9 +588,7 @@
         <v>93</v>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>1.84</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -611,9 +609,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>1.84</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -634,9 +630,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>1.84</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -657,9 +651,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1.84</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>

--- a/2025-10-12/12_combined_confidence.xlsx
+++ b/2025-10-12/12_combined_confidence.xlsx
@@ -485,7 +485,7 @@
         <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
         <v>98</v>
@@ -510,7 +510,7 @@
         <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E3" t="n">
         <v>90</v>
@@ -535,7 +535,7 @@
         <v>72</v>
       </c>
       <c r="D4" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" t="n">
         <v>80</v>
@@ -588,7 +588,9 @@
         <v>93</v>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1.25</v>
+      </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -609,7 +611,9 @@
         <v>100</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1.25</v>
+      </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -630,7 +634,9 @@
         <v>100</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>1.33</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -651,7 +657,9 @@
         <v>70</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>2.3</v>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>

--- a/2025-10-12/12_combined_confidence.xlsx
+++ b/2025-10-12/12_combined_confidence.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Croatia - Gibraltar: 19:45</t>
+          <t>Croatia ✓ - Gibraltar: 3:0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,12 +493,16 @@
       <c r="F2" t="n">
         <v>1.01</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Netherlands - Finland: 17:00</t>
+          <t>Netherlands ✓ - Finland: 4:0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,12 +522,16 @@
       <c r="F3" t="n">
         <v>1.11</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scotland - Belarus: 17:00</t>
+          <t>Scotland ✓ - Belarus: 2:1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,12 +551,16 @@
       <c r="F4" t="n">
         <v>1.18</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romania - Austria: 19:45</t>
+          <t>Romania - Austria X: 1:0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -568,12 +580,16 @@
       <c r="F5" t="n">
         <v>1.84</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egypt - Guinea-Bissau: 20:00</t>
+          <t>Egypt ✓ - Guinea-Bissau: 1:0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,12 +607,16 @@
       <c r="F6" t="n">
         <v>1.25</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Burkina Faso - Ethiopia: 20:00</t>
+          <t>Burkina Faso ✓ - Ethiopia: 3:1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -614,12 +634,16 @@
       <c r="F7" t="n">
         <v>1.25</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ghana - Comoros: 20:00</t>
+          <t>Ghana ✓ - Comoros: 1:0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -637,12 +661,16 @@
       <c r="F8" t="n">
         <v>1.33</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Club Deportivo Guabirá - Club Aurora: 2:1</t>
+          <t>Club Deportivo Guabirá ✓ - Club Aurora: 2:1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -660,7 +688,11 @@
       <c r="F9" t="n">
         <v>2.3</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
